--- a/data/zenodo_ivan/process/chp_supply/CHE_p_chp_hardcoal.xlsx
+++ b/data/zenodo_ivan/process/chp_supply/CHE_p_chp_hardcoal.xlsx
@@ -28,7 +28,7 @@
     <t>CHE_p_chp_hardcoal.xlsx</t>
   </si>
   <si>
-    <t>2023-01-05 18:35:28</t>
+    <t>2023-01-06 14:43:55</t>
   </si>
   <si>
     <t>Ivan Ruiz Manuel</t>
